--- a/biology/Botanique/Vantanea/Vantanea.xlsx
+++ b/biology/Botanique/Vantanea/Vantanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vantanea est un genre de plantes à fleursde la famille des Humiriaceae, comprenant 4 à 20 espèces sud-américaines.
-Le nom Vantanea provient du nom vernaculaire Noiragues de l'espèce type Vantanea guianensis Aubl. : IOUANTAN[1].
+Le nom Vantanea provient du nom vernaculaire Noiragues de l'espèce type Vantanea guianensis Aubl. : IOUANTAN.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « VANTANEA. (Tabula 229.)
 CAL Perianthium concavum, quinquedentatum, denticulis ſubrotundis, acutis.
 COR. Petala quinque, longa, anguſta, apice recurva, nectario cyathi formi inſerta.
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (9 mars 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (9 mars 2022) :
 Vantanea aracaensis (Nees &amp; Mart.) Benth.
 Vantanea bahiaensis Cuatrec.
 Vantanea barbourii Standl.
@@ -579,7 +595,7 @@
 Vantanea spichigeri A.H.Gentry
 Vantanea spiritu-sancti (Cuatrec.) K.Wurdack &amp; Zartman
 Vantanea tuberculata Ducke
-Selon World Flora Online (WFO)       (9 mars 2022)[5] :
+Selon World Flora Online (WFO)       (9 mars 2022) :
 Vantanea bahiaensis Cuatrec.
 Vantanea barbourii Standl.
 Vantanea celativenia (Standl.) Cuatrec.
@@ -600,7 +616,7 @@
 Vantanea peruviana J.F. Macbr.
 Vantanea spichigeri A.H. Gentry
 Vantanea tuberculata Ducke
-Selon Tropicos                                           (9 mars 2022)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
 Vantanea bahiaensis Cuatrec., 1990
 Vantanea barbourii Standl., 1943
 Vantanea celativenia (Standl.) Cuatrec., 1961
@@ -619,7 +635,7 @@
 Vantanea obovata (Nees &amp; Mart.) Benth., 1853
 Vantanea occidentalis Cuatrec., 1950
 Vantanea ovalifolia (A. Juss.) Benth., 1853
-Vantanea ovicarpa Sabatier, 2002 [2003]
+Vantanea ovicarpa Sabatier, 2002 
 Vantanea paniculata Urb., 1877
 Vantanea paraensis Ducke, 1925
 Vantanea parviflora Lam., 1792
